--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -771,7 +771,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -104,9 +104,6 @@
     <t>效果命中</t>
   </si>
   <si>
-    <t>EffectResist</t>
-  </si>
-  <si>
     <t>效果抵抗</t>
   </si>
   <si>
@@ -158,6 +155,10 @@
   </si>
   <si>
     <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectResist</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -710,20 +711,20 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -771,7 +772,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,10 +785,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
@@ -842,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
@@ -885,11 +886,11 @@
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -897,10 +898,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -908,10 +909,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -919,10 +920,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
+    <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
   <si>
     <t>sheet名</t>
   </si>
@@ -74,91 +75,293 @@
     <t>Atk</t>
   </si>
   <si>
+    <t>Def</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+  </si>
+  <si>
+    <t>EffectHit</t>
+  </si>
+  <si>
+    <t>效果命中</t>
+  </si>
+  <si>
+    <t>效果抵抗</t>
+  </si>
+  <si>
+    <t>AtkRate</t>
+  </si>
+  <si>
+    <t>攻击百分比加成</t>
+  </si>
+  <si>
+    <t>DefRate</t>
+  </si>
+  <si>
+    <t>防御百分比加成</t>
+  </si>
+  <si>
+    <t>HPRate</t>
+  </si>
+  <si>
+    <t>生命百分比加成</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectResist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkExt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ext</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPExt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>攻击</t>
-  </si>
-  <si>
-    <t>Def</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防御</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生命</t>
-  </si>
-  <si>
-    <t>Crit</t>
-  </si>
-  <si>
-    <t>暴击率</t>
-  </si>
-  <si>
-    <t>CritRate</t>
-  </si>
-  <si>
-    <t>暴击伤害</t>
-  </si>
-  <si>
-    <t>EffectHit</t>
-  </si>
-  <si>
-    <t>效果命中</t>
-  </si>
-  <si>
-    <t>效果抵抗</t>
-  </si>
-  <si>
-    <t>AtkRate</t>
-  </si>
-  <si>
-    <t>攻击百分比加成</t>
-  </si>
-  <si>
-    <t>DefRate</t>
-  </si>
-  <si>
-    <t>防御百分比加成</t>
-  </si>
-  <si>
-    <t>HPRate</t>
-  </si>
-  <si>
-    <t>生命百分比加成</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.json</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏中基础属性的配置
-建议使用数组存储</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectResist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常驻内存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值为0时，角色死亡。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定角色的伤害能力，攻击力越高，角色技能的伤害也越高。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力越高，角色所受伤害越低。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伤害性技能和恢复技能会发生暴击，默认暴击伤害为1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.5倍。</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升暴击后造成的伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升Debuff的命中概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低遭受Debuff的概率。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御基值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsHide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色攻击敌方时，有概率忽略对方的防御，可与暴击同时发生。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比提升基础攻击力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比提升基础防御力。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比提升基础生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外攻击力，不受百分比影响。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外防御力，不受百分比影响。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外生命，不受百分比影响。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色受到攻击时，有概率发生格挡，只受到一半的伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御系数 = Ra/(Ra+防御b)。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BsFac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>战力系数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性乘数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritDmg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏中属性的配置
+建议使用数组存储，方便属性遍历与赋值
+战斗力 = SUMPRODUCT(属性值,战斗力系数)
+面板对应显示，使用string.format(cfg_prop[id].Show.Str,prop[id] * cfg_prop[id].Show.Fac)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show.Fac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show.Str</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +563,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -376,6 +579,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -669,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -682,11 +891,11 @@
     <col min="3" max="3" width="32.625" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="79.625" customWidth="1"/>
+    <col min="6" max="6" width="82" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,29 +917,37 @@
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="3" t="b">
+        <v>80</v>
+      </c>
+      <c r="G2" s="7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -738,8 +955,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -747,8 +965,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -756,8 +975,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -769,32 +989,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="6" width="15.625" customWidth="1"/>
+    <col min="3" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="6" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="67.375" customWidth="1"/>
+    <col min="9" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -804,8 +1041,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -815,118 +1067,476 @@
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>C4&amp;" +%d"</f>
+        <v>基础攻击 +%d</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ref="E5:E19" si="0">C5&amp;" +%d"</f>
+        <v>基础防御 +%d</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>基础生命 +%d</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>C7&amp;" +%f%%"</f>
+        <v>暴击率 +%f%%</v>
+      </c>
+      <c r="F7" s="4">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
+      <c r="B8" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" ref="E8:E18" si="1">C8&amp;" +%f%%"</f>
+        <v>暴击伤害 +%f%%</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="4">
+        <v>500</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>效果命中 +%f%%</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>750</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>效果抵抗 +%f%%</v>
+      </c>
+      <c r="F10" s="4">
+        <v>100</v>
+      </c>
+      <c r="G10" s="4">
+        <v>750</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>攻击百分比加成 +%f%%</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>防御百分比加成 +%f%%</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>生命百分比加成 +%f%%</v>
+      </c>
+      <c r="F13" s="4">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>攻击 +%f%%</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>防御 +%f%%</v>
+      </c>
+      <c r="F15" s="4">
+        <v>100</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>生命 +%f%%</v>
+      </c>
+      <c r="F16" s="4">
+        <v>100</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>格挡 +%f%%</v>
+      </c>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>穿透 +%f%%</v>
+      </c>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>防御基值 +%d</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="3" max="3" width="54.125" customWidth="1"/>
+    <col min="4" max="4" width="45.125" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -350,18 +350,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Show.Fac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show.Str</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>游戏中属性的配置
 建议使用数组存储，方便属性遍历与赋值
-战斗力 = SUMPRODUCT(属性值,战斗力系数)
+单卡战斗力 = SUMPRODUCT(属性值,战斗力系数) + 技能战斗力；队伍战斗力=队伍中所有卡的战斗力 + 先攻值 * 100
 面板对应显示，使用string.format(cfg_prop[id].Show.Str,prop[id] * cfg_prop[id].Show.Fac)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show.Fac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show.Str</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -921,7 +921,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G2" s="7" t="b">
         <v>1</v>
@@ -991,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1019,10 +1019,10 @@
         <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>74</v>
@@ -1185,7 +1185,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="4">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>53</v>
@@ -1212,7 +1212,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="4">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>54</v>
@@ -1239,7 +1239,7 @@
         <v>100</v>
       </c>
       <c r="G9" s="4">
-        <v>750</v>
+        <v>75000</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>55</v>
@@ -1266,7 +1266,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="4">
-        <v>750</v>
+        <v>75000</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>57</v>
@@ -1482,7 +1482,7 @@
         <v>100</v>
       </c>
       <c r="G18" s="4">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>63</v>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>sheet名</t>
   </si>
@@ -57,10 +57,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CnName</t>
   </si>
   <si>
@@ -119,14 +115,6 @@
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.lua</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>property.json</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -278,10 +266,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bool:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>角色攻击敌方时，有概率忽略对方的防御，可与暴击同时发生。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -326,18 +310,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BsFac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>战力系数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>float:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>属性乘数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -347,14 +323,6 @@
   </si>
   <si>
     <t>DefIgnor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show.Fac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show.Str</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -362,6 +330,46 @@
 建议使用数组存储，方便属性遍历与赋值
 单卡战斗力 = SUMPRODUCT(属性值,战斗力系数) + 技能战斗力；队伍战斗力=队伍中所有卡的战斗力 + 先攻值 * 100
 面板对应显示，使用string.format(cfg_prop[id].Show.Str,prop[id] * cfg_prop[id].Show.Fac)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show_Str</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show_Fac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>property.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>txt</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BsFactor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>property.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -881,7 +889,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -918,27 +926,25 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G2" s="7" t="b">
         <v>1</v>
@@ -948,13 +954,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="7" t="b">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -992,7 +1006,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1007,28 +1021,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1036,25 +1050,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -1062,36 +1076,36 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="b">
         <v>0</v>
@@ -1107,18 +1121,18 @@
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="b">
         <v>0</v>
@@ -1134,18 +1148,18 @@
         <v>20</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="b">
         <v>0</v>
@@ -1161,18 +1175,18 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D7" s="4" t="b">
         <v>0</v>
@@ -1188,18 +1202,18 @@
         <v>100000</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="b">
         <v>0</v>
@@ -1215,18 +1229,18 @@
         <v>50000</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="4" t="b">
         <v>0</v>
@@ -1242,18 +1256,18 @@
         <v>75000</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="b">
         <v>0</v>
@@ -1269,18 +1283,18 @@
         <v>75000</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D11" s="4" t="b">
         <v>1</v>
@@ -1296,18 +1310,18 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="4" t="b">
         <v>1</v>
@@ -1323,18 +1337,18 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D13" s="4" t="b">
         <v>1</v>
@@ -1350,18 +1364,18 @@
         <v>0</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="D14" s="4" t="b">
         <v>1</v>
@@ -1377,18 +1391,18 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D15" s="4" t="b">
         <v>1</v>
@@ -1404,18 +1418,18 @@
         <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="4" t="b">
         <v>1</v>
@@ -1431,18 +1445,18 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="4" t="b">
         <v>0</v>
@@ -1458,18 +1472,18 @@
         <v>0</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" s="4" t="b">
         <v>0</v>
@@ -1485,18 +1499,18 @@
         <v>100000</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D19" s="4" t="b">
         <v>1</v>
@@ -1512,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1005,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1381,11 +1381,11 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>攻击 +%f%%</v>
+        <f>C14&amp;" +%d"</f>
+        <v>攻击 +%d</v>
       </c>
       <c r="F14" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -1408,11 +1408,11 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>防御 +%f%%</v>
+        <f t="shared" ref="E15:E16" si="2">C15&amp;" +%d"</f>
+        <v>防御 +%d</v>
       </c>
       <c r="F15" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -1435,11 +1435,11 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>生命 +%f%%</v>
+        <f t="shared" si="2"/>
+        <v>生命 +%d</v>
       </c>
       <c r="F16" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>格挡 +%f%%</v>
       </c>
       <c r="F17" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>穿透 +%f%%</v>
       </c>
       <c r="F18" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4">
         <v>100000</v>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>sheet名</t>
   </si>
@@ -318,10 +318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CritDmg</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DefIgnor</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -370,6 +366,22 @@
   </si>
   <si>
     <t>property.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsInt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否取整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +946,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -944,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="7" t="b">
         <v>1</v>
@@ -959,7 +971,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,12 +1026,12 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="67.375" customWidth="1"/>
-    <col min="9" max="10" width="15.625" customWidth="1"/>
+    <col min="6" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="67.375" customWidth="1"/>
+    <col min="10" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1033,19 +1045,22 @@
         <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1056,22 +1071,25 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1091,13 +1109,16 @@
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1117,14 +1138,17 @@
       <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1144,14 +1168,17 @@
       <c r="F5" s="4">
         <v>1</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1171,14 +1198,17 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -1192,25 +1222,26 @@
         <v>0</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>C7&amp;" +%f%%"</f>
-        <v>暴击率 +%f%%</v>
+        <f>C7&amp;" +%.2f%%"</f>
+        <v>暴击率 +%.2f%%</v>
       </c>
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
         <v>100000</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1219,20 +1250,21 @@
         <v>0</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f t="shared" ref="E8:E18" si="1">C8&amp;" +%f%%"</f>
-        <v>暴击伤害 +%f%%</v>
+        <f>C8&amp;" +%.2f%%"</f>
+        <v>暴击伤害 +%.2f%%</v>
       </c>
       <c r="F8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4">
         <v>50000</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -1246,20 +1278,21 @@
         <v>0</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>效果命中 +%f%%</v>
+        <f>C9&amp;" +%.2f%%"</f>
+        <v>效果命中 +%.2f%%</v>
       </c>
       <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>75000</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -1273,20 +1306,21 @@
         <v>0</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>效果抵抗 +%f%%</v>
+        <f>C10&amp;" +%.2f%%"</f>
+        <v>效果抵抗 +%.2f%%</v>
       </c>
       <c r="F10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>75000</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>108</v>
       </c>
@@ -1300,20 +1334,21 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E8:E18" si="1">C11&amp;" +%f%%"</f>
         <v>攻击百分比加成 +%f%%</v>
       </c>
       <c r="F11" s="4">
         <v>100</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4">
         <v>0</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>109</v>
       </c>
@@ -1333,14 +1368,15 @@
       <c r="F12" s="4">
         <v>100</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>110</v>
       </c>
@@ -1360,14 +1396,15 @@
       <c r="F13" s="4">
         <v>100</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>111</v>
       </c>
@@ -1387,14 +1424,17 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>0</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>112</v>
       </c>
@@ -1414,14 +1454,17 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113</v>
       </c>
@@ -1441,14 +1484,17 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
         <v>0</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>114</v>
       </c>
@@ -1462,25 +1508,26 @@
         <v>0</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>格挡 +%f%%</v>
+        <f>C17&amp;" +%.2f%%"</f>
+        <v>格挡 +%.2f%%</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4">
+        <v>100000</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>43</v>
@@ -1489,20 +1536,21 @@
         <v>0</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>穿透 +%f%%</v>
+        <f>C18&amp;" +%.2f%%"</f>
+        <v>穿透 +%.2f%%</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
         <v>100000</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>116</v>
       </c>
@@ -1522,10 +1570,11 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1541,7 +1590,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24705DE-6650-4AF3-952E-62B248CB492B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
   <si>
     <t>sheet名</t>
   </si>
@@ -381,14 +388,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>bool:e&lt;&gt;</t>
+    <t>每回合回复水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalRec</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -600,27 +615,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -897,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -958,10 +971,10 @@
       <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7" t="b">
+      <c r="G2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -978,7 +991,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="7" t="b">
+      <c r="G3" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="3"/>
@@ -1014,21 +1027,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
     <col min="6" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="67.375" customWidth="1"/>
-    <col min="10" max="11" width="15.625" customWidth="1"/>
+    <col min="10" max="10" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -1056,7 +1070,7 @@
       <c r="H1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1080,7 +1094,7 @@
         <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
         <v>69</v>
@@ -1334,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f t="shared" ref="E8:E18" si="1">C11&amp;" +%f%%"</f>
+        <f t="shared" ref="E11:E13" si="1">C11&amp;" +%f%%"</f>
         <v>攻击百分比加成 +%f%%</v>
       </c>
       <c r="F11" s="4">
@@ -1576,6 +1590,34 @@
       </c>
       <c r="I19" s="4" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>201</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f>C20&amp;" +%d"</f>
+        <v>每回合回复水晶 +%d</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="4">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1586,7 +1628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24705DE-6650-4AF3-952E-62B248CB492B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>sheet名</t>
   </si>
@@ -399,11 +398,19 @@
     <t>bool:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>IsFinal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否最终属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,19 +628,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -910,7 +917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1027,11 +1034,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1040,12 +1047,12 @@
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="67.375" customWidth="1"/>
-    <col min="10" max="10" width="15.625" customWidth="1"/>
+    <col min="6" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="67.375" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1068,13 +1075,16 @@
         <v>82</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1097,13 +1107,16 @@
         <v>86</v>
       </c>
       <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1126,13 +1139,16 @@
         <v>83</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1155,14 +1171,17 @@
       <c r="G4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1185,14 +1204,17 @@
       <c r="G5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
         <v>20</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1215,14 +1237,17 @@
       <c r="G6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -1243,14 +1268,17 @@
         <v>100</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
         <v>100000</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
@@ -1271,14 +1299,17 @@
         <v>100</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
         <v>50000</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -1299,14 +1330,17 @@
         <v>100</v>
       </c>
       <c r="G9" s="4"/>
-      <c r="H9" s="4">
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>75000</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -1327,14 +1361,17 @@
         <v>100</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
         <v>75000</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>108</v>
       </c>
@@ -1355,14 +1392,15 @@
         <v>100</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>109</v>
       </c>
@@ -1383,14 +1421,15 @@
         <v>100</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>110</v>
       </c>
@@ -1411,14 +1450,15 @@
         <v>100</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>111</v>
       </c>
@@ -1441,14 +1481,15 @@
       <c r="G14" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>112</v>
       </c>
@@ -1471,14 +1512,15 @@
       <c r="G15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113</v>
       </c>
@@ -1501,14 +1543,15 @@
       <c r="G16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>114</v>
       </c>
@@ -1529,14 +1572,17 @@
         <v>1</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
         <v>100000</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>115</v>
       </c>
@@ -1557,14 +1603,17 @@
         <v>1</v>
       </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4">
         <v>100000</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>116</v>
       </c>
@@ -1585,14 +1634,17 @@
         <v>1</v>
       </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>201</v>
       </c>
@@ -1613,10 +1665,11 @@
         <v>1</v>
       </c>
       <c r="G20" s="7"/>
-      <c r="H20" s="4">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="H20" s="7"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1628,7 +1681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AE34C-8C2A-4CEF-96F8-5437C33BE005}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -410,7 +405,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,19 +623,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1034,11 +1029,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1681,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55AE34C-8C2A-4CEF-96F8-5437C33BE005}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
   <si>
     <t>sheet名</t>
   </si>
@@ -401,11 +400,71 @@
     <t>是否最终属性</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Suck</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Dmg</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Bonus</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害*Suck=回复生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害提升+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害 = 伤害 * max(0.25, (1+DmgBonus))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗效率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreatEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到治疗+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到治疗 = 治疗量 * max(0.25, (1+TreatEffect))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,19 +682,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -912,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1029,11 +1088,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1641,30 +1700,120 @@
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
+        <v>117</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="4">
+        <v>100</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>118</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="4">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>119</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>201</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f>C20&amp;" +%d"</f>
+      <c r="D23" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f>C23&amp;" +%d"</f>
         <v>每回合回复水晶 +%d</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1676,7 +1825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>sheet名</t>
   </si>
@@ -459,6 +459,17 @@
   <si>
     <t>受到治疗 = 治疗量 * max(0.25, (1+TreatEffect))</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siege</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻城值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌国战攻城值属性</t>
   </si>
 </sst>
 </file>
@@ -593,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -625,6 +636,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -659,7 +681,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -680,6 +702,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFill="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
@@ -1089,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1815,6 +1843,37 @@
       </c>
       <c r="J23" s="4" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>601</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" ref="E24" si="3">C24&amp;" +%d"</f>
+        <v>攻城值 +%d</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>sheet名</t>
   </si>
@@ -318,10 +318,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DefIgnor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>游戏中属性的配置
 建议使用数组存储，方便属性遍历与赋值
 单卡战斗力 = SUMPRODUCT(属性值,战斗力系数) + 技能战斗力；队伍战斗力=队伍中所有卡的战斗力 + 先攻值 * 100
@@ -470,6 +466,140 @@
   </si>
   <si>
     <t>卡牌国战攻城值属性</t>
+  </si>
+  <si>
+    <t>DefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Crit</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeCritRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeDefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害后反弹+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤降低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低被格挡概率+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低被穿透概率+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低被暴击率+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低所受暴击伤害+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害降低+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际暴击概率 = 施法者Crit - 受击者.DeCrit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际爆伤 = 施法者.CritRate - 受击者.DeCritRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际格挡 = 受击者.Block - 施法者.DeBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际穿透 = 施法者.DefIgnor - 受击者.DeDefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgMagnify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际所受伤害 = 原先实际所受伤害 * (1 + 受击者.DmgMagnify -  受击者.DmgResist)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际所受伤害 = 原先实际所受伤害 * (1 +  受击者.DmgMagnify -  受击者.DmgResist)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgResist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹伤害 = 所受伤害 * 受击者.HitBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -604,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -636,17 +766,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -681,7 +800,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -700,13 +819,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1048,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1058,7 +1170,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="6" t="b">
         <v>1</v>
@@ -1073,7 +1185,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1117,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1148,19 +1260,19 @@
         <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>44</v>
@@ -1177,19 +1289,19 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
         <v>69</v>
@@ -1218,10 +1330,10 @@
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>70</v>
@@ -1365,7 +1477,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1669,7 +1781,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>43</v>
@@ -1731,16 +1843,16 @@
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F20" s="4">
         <v>100</v>
@@ -1753,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1761,16 +1873,16 @@
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F21" s="4">
         <v>100</v>
@@ -1783,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1791,16 +1903,16 @@
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="F22" s="4">
         <v>100</v>
@@ -1813,67 +1925,277 @@
         <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="D23" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f>C23&amp;" +%d"</f>
-        <v>每回合回复水晶 +%d</v>
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
+        <v>121</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="4">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>122</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="4">
+        <v>100</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>123</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="4">
+        <v>100</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>124</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="4">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4">
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>125</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>126</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="4">
+        <v>100</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>127</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="str">
+        <f>C30&amp;" +%d"</f>
+        <v>每回合回复水晶 +%d</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>601</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="str">
+        <f t="shared" ref="E31" si="3">C31&amp;" +%d"</f>
+        <v>攻城值 +%d</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" ref="E24" si="3">C24&amp;" +%d"</f>
-        <v>攻城值 +%d</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -330,10 +330,6 @@
   </si>
   <si>
     <t>Show_Str</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show_Fac</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -601,11 +597,15 @@
     <t>反弹伤害 = 所受伤害 * 受击者.HitBack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Show_Fac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,7 +1104,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1160,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1263,16 +1263,16 @@
         <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>44</v>
@@ -1295,13 +1295,13 @@
         <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
         <v>69</v>
@@ -1330,10 +1330,10 @@
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>70</v>
@@ -1477,7 +1477,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -1781,7 +1781,7 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>43</v>
@@ -1843,16 +1843,16 @@
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="4">
         <v>100</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1873,16 +1873,16 @@
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="4">
         <v>100</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1903,16 +1903,16 @@
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="F22" s="4">
         <v>100</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1933,16 +1933,16 @@
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F23" s="4">
         <v>100</v>
@@ -1955,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1963,16 +1963,16 @@
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="4">
         <v>100</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1993,16 +1993,16 @@
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="4">
         <v>100</v>
@@ -2015,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2023,16 +2023,16 @@
         <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="4">
         <v>100</v>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2053,16 +2053,16 @@
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" s="4">
         <v>100</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.2">
@@ -2083,16 +2083,16 @@
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" s="4">
         <v>100</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.2">
@@ -2113,16 +2113,16 @@
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="4">
         <v>100</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2143,10 +2143,10 @@
         <v>127</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30" s="3" t="b">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -2172,10 +2172,10 @@
         <v>601</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <t>sheet名</t>
   </si>
@@ -601,11 +601,39 @@
     <t>Show_Fac</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peed</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先攻值+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定是否先手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,7 +1132,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1229,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2168,7 @@
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>83</v>
@@ -2169,32 +2197,60 @@
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
+        <v>202</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>601</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="str">
-        <f t="shared" ref="E31" si="3">C31&amp;" +%d"</f>
+      <c r="D32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="str">
+        <f t="shared" ref="E32" si="3">C32&amp;" +%d"</f>
         <v>攻城值 +%d</v>
       </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
   <si>
     <t>sheet名</t>
   </si>
@@ -627,6 +627,22 @@
   </si>
   <si>
     <t>决定是否先手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥义增强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵奥义伤害+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵释放水晶技能的伤害 = 原先的伤害 * (1+施法者.AoYi)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoYi</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1257,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2166,50 +2182,52 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>201</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="str">
-        <f>C30&amp;" +%d"</f>
-        <v>每回合回复水晶 +%d</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>82</v>
+        <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F30" s="4">
+        <v>100</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>202</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>132</v>
+        <v>201</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>133</v>
+      <c r="E31" s="3" t="str">
+        <f>C31&amp;" +%d"</f>
+        <v>每回合回复水晶 +%d</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -2219,38 +2237,66 @@
       <c r="I31" s="3">
         <v>0</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>134</v>
+      <c r="J31" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
+        <v>202</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>601</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" ref="E32" si="3">C32&amp;" +%d"</f>
+      <c r="D33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="str">
+        <f t="shared" ref="E33" si="3">C33&amp;" +%d"</f>
         <v>攻城值 +%d</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>101</v>
       </c>
     </row>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -373,14 +373,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>每回合回复水晶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrystalRec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bool:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -643,6 +635,14 @@
   </si>
   <si>
     <t>AoYi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为怪物属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMonProp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1273,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1285,12 +1285,14 @@
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="67.375" customWidth="1"/>
-    <col min="11" max="11" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="67.375" customWidth="1"/>
+    <col min="12" max="12" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -1307,22 +1309,25 @@
         <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="I1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1342,19 +1347,22 @@
         <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1374,19 +1382,22 @@
         <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
@@ -1412,14 +1423,17 @@
       <c r="H4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
         <v>10</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
@@ -1445,14 +1459,17 @@
       <c r="H5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
         <v>20</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
@@ -1478,14 +1495,17 @@
       <c r="H6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
@@ -1505,18 +1525,21 @@
       <c r="F7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="G7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>100000</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
@@ -1536,18 +1559,21 @@
       <c r="F8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>50000</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
@@ -1567,18 +1593,21 @@
       <c r="F9" s="4">
         <v>100</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
         <v>75000</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
@@ -1598,18 +1627,21 @@
       <c r="F10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
         <v>75000</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>108</v>
       </c>
@@ -1631,14 +1663,15 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="4" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>109</v>
       </c>
@@ -1660,14 +1693,15 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="s">
+      <c r="I12" s="4"/>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>110</v>
       </c>
@@ -1689,14 +1723,15 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="4" t="s">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>111</v>
       </c>
@@ -1716,18 +1751,19 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="s">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>112</v>
       </c>
@@ -1747,18 +1783,19 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113</v>
       </c>
@@ -1778,18 +1815,19 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>114</v>
       </c>
@@ -1809,23 +1847,26 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
         <v>100000</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>43</v>
@@ -1840,18 +1881,21 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="G18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
         <v>100000</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>116</v>
       </c>
@@ -1871,433 +1915,420 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="4" t="s">
+      <c r="G19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="D20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F20" s="4">
         <v>100</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F21" s="4">
         <v>100</v>
       </c>
       <c r="G21" s="4"/>
-      <c r="H21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="F22" s="4">
         <v>100</v>
       </c>
       <c r="G22" s="4"/>
-      <c r="H22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H22" s="4"/>
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="4">
         <v>100</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F24" s="4">
         <v>100</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="4">
         <v>100</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F26" s="4">
         <v>100</v>
       </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="4">
         <v>100</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="4">
-        <v>0</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4">
         <v>100</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.2">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" s="4">
         <v>100</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D30" s="4" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F30" s="4">
         <v>100</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="4">
-        <v>0</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>201</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>82</v>
+      <c r="B31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="D31" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E31" s="3" t="str">
-        <f>C31&amp;" +%d"</f>
-        <v>每回合回复水晶 +%d</v>
+      <c r="E31" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>202</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>132</v>
+        <v>601</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D32" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>133</v>
+      <c r="E32" s="3" t="str">
+        <f t="shared" ref="E32" si="3">C32&amp;" +%d"</f>
+        <v>攻城值 +%d</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>601</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="I32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3" t="str">
-        <f t="shared" ref="E33" si="3">C33&amp;" +%d"</f>
-        <v>攻城值 +%d</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,12 +16,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>sheet名</t>
   </si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>暴击伤害</t>
-  </si>
-  <si>
-    <t>EffectHit</t>
   </si>
   <si>
     <t>效果命中</t>
@@ -389,6 +392,317 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>吸血</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸血+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害*Suck=回复生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害提升+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终伤害 = 伤害 * max(0.25, (1+DmgBonus))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗效率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreatEffect</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到治疗+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到治疗 = 治疗量 * max(0.25, (1+TreatEffect))</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Siege</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻城值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌国战攻城值属性</t>
+  </si>
+  <si>
+    <t>DeCritRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeDefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆伤抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透抵抗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害后反弹+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤降低</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低被格挡概率+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低被穿透概率+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低被暴击率+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低所受暴击伤害+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害降低+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际暴击概率 = 施法者Crit - 受击者.DeCrit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际爆伤 = 施法者.CritRate - 受击者.DeCritRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际格挡 = 受击者.Block - 施法者.DeBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际穿透 = 施法者.DefIgnor - 受击者.DeDefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgMagnify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际所受伤害 = 原先实际所受伤害 * (1 + 受击者.DmgMagnify -  受击者.DmgResist)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际所受伤害 = 原先实际所受伤害 * (1 +  受击者.DmgMagnify -  受击者.DmgResist)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反伤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹伤害 = 所受伤害 * 受击者.HitBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show_Fac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>peed</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先攻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>先攻值+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>决定是否先手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥义增强</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵释放水晶技能的伤害 = 原先的伤害 * (1+施法者.AoYi)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AoYi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否为怪物属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMonProp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得水晶数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalGain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalGainRed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalGainYellow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrystalGainBlue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得红水晶数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得黄水晶数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得蓝水晶数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人地狱道突破；神器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器；寄灵人洗练技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_1304027</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniRed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniYellow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniBlue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始红水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始黄水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始蓝水晶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得随机水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得红水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得黄水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合获得蓝水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始获得红水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始获得黄水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始获得蓝水晶+%d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefIgnor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>Dmg</t>
     </r>
@@ -405,58 +719,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>吸血</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害提升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸血+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害*Suck=回复生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害提升+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>最终伤害 = 伤害 * max(0.25, (1+DmgBonus))</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗效率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TreatEffect</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到治疗+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到治疗 = 治疗量 * max(0.25, (1+TreatEffect))</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Siege</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻城值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌国战攻城值属性</t>
-  </si>
-  <si>
-    <t>DefIgnor</t>
+    <t>DmgResist</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -486,163 +749,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DeCritRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeBlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeDefIgnor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击抵抗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆伤抵抗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡抵抗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透抵抗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害后反弹+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤提升</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受伤降低</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低被格挡概率+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低被穿透概率+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低被暴击率+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>降低所受暴击伤害+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害降低+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际暴击概率 = 施法者Crit - 受击者.DeCrit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际爆伤 = 施法者.CritRate - 受击者.DeCritRate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际格挡 = 受击者.Block - 施法者.DeBlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际穿透 = 施法者.DefIgnor - 受击者.DeDefIgnor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DmgMagnify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际所受伤害 = 原先实际所受伤害 * (1 + 受击者.DmgMagnify -  受击者.DmgResist)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际所受伤害 = 原先实际所受伤害 * (1 +  受击者.DmgMagnify -  受击者.DmgResist)</t>
+    <t>BlockRate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵奥义伤害+%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡减伤提升%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡免伤提升%.2f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectHit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出伤害提升+%.2f%%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HitBack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DmgResist</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反伤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>反弹伤害 = 所受伤害 * 受击者.HitBack</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show_Fac</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>peed</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>先攻</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>先攻值+%d</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>决定是否先手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥义增强</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵奥义伤害+%.2f%%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵释放水晶技能的伤害 = 原先的伤害 * (1+施法者.AoYi)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AoYi</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否为怪物属性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsMonProp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1196,25 +1331,25 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="6" t="b">
         <v>1</v>
@@ -1225,11 +1360,11 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1273,96 +1408,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="15.75" customWidth="1"/>
-    <col min="8" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="67.375" customWidth="1"/>
-    <col min="12" max="12" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="22.125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.75" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="14" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="67.375" customWidth="1"/>
+    <col min="13" max="13" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1370,54 +1516,55 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f>C4&amp;" +%d"</f>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>D4&amp;" +%d"</f>
         <v>基础攻击 +%d</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="b">
+      <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="4" t="b">
@@ -1426,34 +1573,35 @@
       <c r="I4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
         <v>10</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>102</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" ref="E5:E19" si="0">C5&amp;" +%d"</f>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" ref="F5:F19" si="0">D5&amp;" +%d"</f>
         <v>基础防御 +%d</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="b">
+      <c r="G5" s="4">
         <v>1</v>
       </c>
       <c r="H5" s="4" t="b">
@@ -1462,34 +1610,35 @@
       <c r="I5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L5" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="str">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>基础生命 +%d</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="b">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
       <c r="H6" s="4" t="b">
@@ -1498,837 +1647,1124 @@
       <c r="I6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>104</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>C7&amp;" +%.2f%%"</f>
+      <c r="E7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f>D7&amp;" +%.2f%%"</f>
         <v>暴击率 +%.2f%%</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="4">
         <v>100</v>
       </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="H7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
         <v>100000</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L7" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f>C8&amp;" +%.2f%%"</f>
+      <c r="E8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f>D8&amp;" +%.2f%%"</f>
         <v>暴击伤害 +%.2f%%</v>
       </c>
-      <c r="F8" s="4">
+      <c r="G8" s="4">
         <v>100</v>
       </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="H8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4">
         <v>50000</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L8" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>106</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f>C9&amp;" +%.2f%%"</f>
+      <c r="E9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4" t="str">
+        <f>D9&amp;" +%.2f%%"</f>
         <v>效果命中 +%.2f%%</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>100</v>
       </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="H9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
         <v>75000</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f>C10&amp;" +%.2f%%"</f>
+        <v>30</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>D10&amp;" +%.2f%%"</f>
         <v>效果抵抗 +%.2f%%</v>
       </c>
-      <c r="F10" s="4">
+      <c r="G10" s="4">
         <v>100</v>
       </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="H10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
         <v>75000</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" ref="E11:E13" si="1">C11&amp;" +%f%%"</f>
+      <c r="E11" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" ref="F11:F13" si="1">D11&amp;" +%f%%"</f>
         <v>攻击百分比加成 +%f%%</v>
       </c>
-      <c r="F11" s="4">
+      <c r="G11" s="4">
         <v>100</v>
       </c>
-      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>防御百分比加成 +%f%%</v>
       </c>
-      <c r="F12" s="4">
+      <c r="G12" s="4">
         <v>100</v>
       </c>
-      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>生命百分比加成 +%f%%</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="4">
         <v>100</v>
       </c>
-      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <v>0</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>111</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f>C14&amp;" +%d"</f>
+        <v>34</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f>D14&amp;" +%d"</f>
         <v>攻击 +%d</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>112</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" ref="E15:E16" si="2">C15&amp;" +%d"</f>
+        <v>35</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" ref="F15:F16" si="2">D15&amp;" +%d"</f>
         <v>防御 +%d</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>113</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="str">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>生命 +%d</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>114</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f>C17&amp;" +%.2f%%"</f>
+      <c r="E17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f>D17&amp;" +%.2f%%"</f>
         <v>格挡 +%.2f%%</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="4">
         <v>100000</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f>C18&amp;" +%.2f%%"</f>
+        <v>159</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f>D18&amp;" +%.2f%%"</f>
         <v>穿透 +%.2f%%</v>
       </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4">
         <v>100000</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="L18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>防御基值 +%d</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="G20" s="4">
         <v>100</v>
       </c>
-      <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="E21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="4">
         <v>100</v>
       </c>
-      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="4">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="4">
-        <v>100</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" s="4">
+        <v>170</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="4">
         <v>100</v>
       </c>
-      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="E24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="4">
         <v>100</v>
       </c>
-      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="E25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="4">
         <v>100</v>
       </c>
-      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
-        <v>0</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="E26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="4">
         <v>100</v>
       </c>
-      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="E27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="4">
         <v>100</v>
       </c>
-      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="4">
+        <v>117</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="4">
         <v>100</v>
       </c>
-      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="33" x14ac:dyDescent="0.2">
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" s="4">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="4">
         <v>100</v>
       </c>
-      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="4">
+        <v>100</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>128</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G31" s="4">
+        <v>100</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>201</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>202</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>203</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4">
+        <v>0</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>204</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4">
+        <v>0</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>205</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="4">
-        <v>100</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>201</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>206</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="4">
+        <v>0</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>207</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="4">
+        <v>0</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>208</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="4">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>601</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="str">
+        <f t="shared" ref="F40" si="3">D40&amp;" +%d"</f>
+        <v>攻城值 +%d</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="str">
-        <f t="shared" ref="E32" si="3">C32&amp;" +%d"</f>
-        <v>攻城值 +%d</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
   <si>
     <t>sheet名</t>
   </si>
@@ -778,6 +778,10 @@
   </si>
   <si>
     <t>HitBack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool:e&lt;&gt;|FALSE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1414,7 +1418,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,9 +1429,8 @@
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.75" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="14" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="67.375" customWidth="1"/>
     <col min="13" max="13" width="15.625" customWidth="1"/>
   </cols>
@@ -1496,7 +1499,7 @@
         <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="J2" t="s">
         <v>81</v>
@@ -1577,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>47</v>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>48</v>
@@ -2008,7 +2011,7 @@
         <v>格挡 +%.2f%%</v>
       </c>
       <c r="G17" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H17" s="4" t="b">
         <v>1</v>
@@ -2043,7 +2046,7 @@
         <v>穿透 +%.2f%%</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H18" s="4" t="b">
         <v>1</v>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="176">
   <si>
     <t>sheet名</t>
   </si>
@@ -782,6 +782,22 @@
   </si>
   <si>
     <t>bool:e&lt;&gt;|FALSE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasePropAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>全属性提升+%.3f%%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终属性提升%.2f%%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1412,13 +1428,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2481,118 +2497,116 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
+        <v>173</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3">
+        <v>174</v>
+      </c>
+      <c r="G32" s="4">
+        <v>100</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4">
         <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" s="4" t="b">
-        <v>1</v>
+        <v>124</v>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="4">
-        <v>1</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="4">
+        <v>125</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3" t="b">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="4">
         <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -2611,20 +2625,20 @@
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -2643,20 +2657,20 @@
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -2675,20 +2689,20 @@
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -2707,20 +2721,20 @@
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -2739,23 +2753,22 @@
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>601</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="str">
-        <f t="shared" ref="F40" si="3">D40&amp;" +%d"</f>
-        <v>攻城值 +%d</v>
-      </c>
-      <c r="G40" s="3">
+        <v>208</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E40" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G40" s="4">
         <v>1</v>
       </c>
       <c r="H40" s="3"/>
@@ -2763,10 +2776,43 @@
       <c r="J40" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="K40" s="3">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="s">
+      <c r="K40" s="4">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>601</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="str">
+        <f t="shared" ref="F41" si="3">D41&amp;" +%d"</f>
+        <v>攻城值 +%d</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>97</v>
       </c>
     </row>

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7311A1-C305-45EB-B335-30E931AD030F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -804,7 +805,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1021,19 +1022,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1310,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1427,14 +1428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2099,9 +2100,7 @@
       <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="H19" s="4" t="b">
-        <v>1</v>
-      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4" t="b">
         <v>1</v>
@@ -2165,7 +2164,9 @@
       <c r="G21" s="4">
         <v>100</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="b">
         <v>1</v>
@@ -2369,7 +2370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>125</v>
       </c>
@@ -2401,7 +2402,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>126</v>
       </c>
@@ -2824,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7311A1-C305-45EB-B335-30E931AD030F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="属性" sheetId="26" r:id="rId2"/>
     <sheet name="战斗公式" sheetId="27" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,10 +190,6 @@
   </si>
   <si>
     <t>格挡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -801,11 +796,15 @@
     <t>最终属性提升%.2f%%</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>幸运一击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1022,19 +1021,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,7 +1310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1352,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1360,7 +1359,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
@@ -1370,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="6" t="b">
         <v>1</v>
@@ -1385,7 +1384,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>7</v>
@@ -1428,14 +1427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1460,34 +1459,34 @@
         <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1495,37 +1494,37 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -1536,34 +1535,34 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1597,10 +1596,10 @@
         <v>1</v>
       </c>
       <c r="K4" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1634,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="K5" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1674,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1709,7 +1708,7 @@
         <v>100000</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1717,7 +1716,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
@@ -1744,7 +1743,7 @@
         <v>50000</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1752,7 +1751,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -1779,7 +1778,7 @@
         <v>75000</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1814,7 +1813,7 @@
         <v>75000</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1845,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1907,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1940,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -1973,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2006,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2041,7 +2040,7 @@
         <v>100000</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2049,18 +2048,18 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>D18&amp;" +%.2f%%"</f>
-        <v>穿透 +%.2f%%</v>
+        <v>幸运一击 +%.2f%%</v>
       </c>
       <c r="G18" s="4">
         <v>100</v>
@@ -2076,7 +2075,7 @@
         <v>100000</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2084,11 +2083,11 @@
         <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="4" t="b">
         <v>1</v>
@@ -2109,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2117,17 +2116,17 @@
         <v>117</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="4">
         <v>100</v>
@@ -2141,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2149,17 +2148,17 @@
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G21" s="4">
         <v>100</v>
@@ -2175,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2183,17 +2182,17 @@
         <v>119</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="4">
         <v>100</v>
@@ -2207,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2215,17 +2214,17 @@
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G23" s="4">
         <v>100</v>
@@ -2239,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2247,17 +2246,17 @@
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" s="4">
         <v>100</v>
@@ -2271,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2279,17 +2278,17 @@
         <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G25" s="4">
         <v>100</v>
@@ -2303,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2311,17 +2310,17 @@
         <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E26" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="4">
         <v>100</v>
@@ -2335,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2343,17 +2342,17 @@
         <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E27" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" s="4">
         <v>100</v>
@@ -2367,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2375,17 +2374,17 @@
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" s="4">
         <v>100</v>
@@ -2399,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,17 +2406,17 @@
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G29" s="4">
         <v>100</v>
@@ -2431,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2439,17 +2438,17 @@
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G30" s="4">
         <v>100</v>
@@ -2463,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2471,17 +2470,17 @@
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G31" s="4">
         <v>100</v>
@@ -2495,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2503,17 +2502,17 @@
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="E32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="G32" s="4">
         <v>100</v>
@@ -2525,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2533,17 +2532,17 @@
         <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="E33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -2555,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2563,19 +2562,19 @@
         <v>202</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -2589,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2597,17 +2596,17 @@
         <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -2621,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2629,17 +2628,17 @@
         <v>204</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -2653,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2661,17 +2660,17 @@
         <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -2685,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2693,17 +2692,17 @@
         <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -2717,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2725,17 +2724,17 @@
         <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -2749,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2757,17 +2756,17 @@
         <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -2781,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2789,11 +2788,11 @@
         <v>601</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" s="3" t="b">
         <v>0</v>
@@ -2814,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Excel/镇魂街/property.属性.xlsx
+++ b/Excel/镇魂街/property.属性.xlsx
@@ -515,10 +515,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>DmgMagnify</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实际所受伤害 = 原先实际所受伤害 * (1 + 受击者.DmgMagnify -  受击者.DmgResist)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -798,6 +794,10 @@
   </si>
   <si>
     <t>幸运一击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DmgMagnify</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1431,10 +1431,10 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1459,7 @@
         <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>9</v>
@@ -1471,10 +1471,10 @@
         <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>78</v>
@@ -1497,7 +1497,7 @@
         <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
@@ -1515,7 +1515,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
         <v>80</v>
@@ -1535,7 +1535,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -1550,7 +1550,7 @@
         <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>79</v>
@@ -1751,7 +1751,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
@@ -2048,11 +2048,11 @@
         <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" s="4" t="b">
         <v>0</v>
@@ -2148,7 +2148,7 @@
         <v>118</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G21" s="4">
         <v>100</v>
@@ -2214,11 +2214,11 @@
         <v>120</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="4" t="b">
         <v>1</v>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2246,7 +2246,7 @@
         <v>121</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
@@ -2374,7 +2374,7 @@
         <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
@@ -2430,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2438,17 +2438,17 @@
         <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G30" s="4">
         <v>100</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2470,17 +2470,17 @@
         <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G31" s="4">
         <v>100</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -2502,17 +2502,17 @@
         <v>129</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="E32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="G32" s="4">
         <v>100</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2532,17 +2532,17 @@
         <v>201</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="E33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -2554,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2562,19 +2562,19 @@
         <v>202</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" s="4">
         <v>1</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2596,17 +2596,17 @@
         <v>203</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G35" s="4">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2628,17 +2628,17 @@
         <v>204</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2660,17 +2660,17 @@
         <v>205</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2692,17 +2692,17 @@
         <v>206</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G38" s="4">
         <v>1</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2724,17 +2724,17 @@
         <v>207</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G39" s="4">
         <v>1</v>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -2756,17 +2756,17 @@
         <v>208</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="4" t="b">
         <v>1</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G40" s="4">
         <v>1</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
